--- a/powerapp/data/hvcb_rly.xlsx
+++ b/powerapp/data/hvcb_rly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F059A9-B7EE-44B9-A772-044F82CA368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EC8887-365F-D24D-9C29-8200557C587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11900" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="68800" windowHeight="26380" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
   </bookViews>
   <sheets>
     <sheet name="hvcb_rly_assignment" sheetId="2" r:id="rId1"/>
@@ -635,7 +635,7 @@
     <t>proi_rasa</t>
   </si>
   <si>
-    <t>smrk_hlnn_132</t>
+    <t>smrk_hlnm_132</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,32 +709,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,23 +1068,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.9140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="6" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.5">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>178</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>178</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>179</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>180</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>180</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>181</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>181</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>182</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1">
+    <row r="10" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>182</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="10" customFormat="1">
+    <row r="11" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>183</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="10" customFormat="1">
+    <row r="12" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>183</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1">
+    <row r="13" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>184</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="10" customFormat="1">
+    <row r="14" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>184</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="10" customFormat="1">
+    <row r="15" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>185</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="10" customFormat="1">
+    <row r="16" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>185</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="10" customFormat="1">
+    <row r="17" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>186</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1">
+    <row r="18" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>186</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="10" customFormat="1">
+    <row r="19" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>186</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1">
+    <row r="20" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>187</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1">
+    <row r="21" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>187</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="10" customFormat="1">
+    <row r="22" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>188</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1">
+    <row r="23" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>189</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="10" customFormat="1">
+    <row r="24" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>189</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1">
+    <row r="25" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>190</v>
       </c>
@@ -1622,7 +1622,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" s="10" customFormat="1">
+    <row r="26" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>191</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" s="10" customFormat="1">
+    <row r="27" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>192</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" s="10" customFormat="1">
+    <row r="28" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>192</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" s="10" customFormat="1">
+    <row r="29" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>196</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" s="10" customFormat="1">
+    <row r="30" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>196</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" s="10" customFormat="1">
+    <row r="31" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>195</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" s="10" customFormat="1">
+    <row r="32" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>195</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" s="10" customFormat="1">
+    <row r="33" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>194</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" s="10" customFormat="1">
+    <row r="34" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>194</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" s="10" customFormat="1">
+    <row r="35" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>193</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" s="10" customFormat="1">
+    <row r="36" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>193</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1">
+    <row r="37" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" s="10" customFormat="1">
+    <row r="38" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" s="10" customFormat="1">
+    <row r="39" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" s="10" customFormat="1">
+    <row r="40" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" s="10" customFormat="1">
+    <row r="41" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>197</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" s="10" customFormat="1">
+    <row r="42" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>197</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" s="10" customFormat="1">
+    <row r="43" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>197</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" s="10" customFormat="1">
+    <row r="44" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>197</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" s="10" customFormat="1">
+    <row r="45" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>197</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" s="10" customFormat="1">
+    <row r="46" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>197</v>
       </c>
@@ -2126,7 +2126,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" s="10" customFormat="1">
+    <row r="47" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" s="10" customFormat="1">
+    <row r="48" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="11" customFormat="1">
+    <row r="50" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="10" customFormat="1">
+    <row r="51" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" s="10" customFormat="1">
+    <row r="52" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="14.5" customHeight="1">
+    <row r="53" spans="1:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>14</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="11" customFormat="1">
+    <row r="56" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>14</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>18</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>20</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" ht="14.5" customHeight="1">
+    <row r="66" spans="1:12" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>20</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" ht="14.5" customHeight="1">
+    <row r="67" spans="1:12" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" s="10" customFormat="1">
+    <row r="68" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" s="10" customFormat="1">
+    <row r="69" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" s="10" customFormat="1">
+    <row r="70" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>20</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" s="10" customFormat="1">
+    <row r="71" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>20</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>23</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="11" customFormat="1">
+    <row r="74" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>23</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="11" customFormat="1">
+    <row r="75" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>23</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="10" customFormat="1">
+    <row r="79" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" s="10" customFormat="1">
+    <row r="80" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" s="10" customFormat="1">
+    <row r="81" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>26</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" s="10" customFormat="1">
+    <row r="82" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" s="10" customFormat="1">
+    <row r="83" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>26</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" s="10" customFormat="1">
+    <row r="84" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" s="10" customFormat="1">
+    <row r="85" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>28</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" s="10" customFormat="1">
+    <row r="86" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>28</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" s="10" customFormat="1">
+    <row r="87" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>28</v>
       </c>
@@ -2956,7 +2956,7 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" s="11" customFormat="1">
+    <row r="88" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="11" customFormat="1">
+    <row r="91" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>29</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>31</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="10" customFormat="1">
+    <row r="96" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>31</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>31</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>31</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>34</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="11" customFormat="1">
+    <row r="101" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>34</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="11" customFormat="1">
+    <row r="102" spans="1:12" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>34</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>34</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>38</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="10" customFormat="1">
+    <row r="105" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>38</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" s="10" customFormat="1">
+    <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>198</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="10" customFormat="1">
+    <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>198</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="10" customFormat="1">
+    <row r="108" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>198</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="10" customFormat="1">
+    <row r="109" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>40</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="10" customFormat="1" ht="14.5" customHeight="1">
+    <row r="110" spans="1:12" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>40</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="10" customFormat="1" ht="14.5" customHeight="1">
+    <row r="111" spans="1:12" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>40</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="10" customFormat="1">
+    <row r="112" spans="1:12" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>40</v>
       </c>
@@ -3396,7 +3396,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A112" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:A112" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="smrk_hlnn_132"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
